--- a/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00001.xlsx
+++ b/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$84</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$399</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -185,32 +190,6 @@
   </si>
   <si>
     <t>Measured signal output of fluormeter in clean water with black tape over the detector [counts] Found in the ECO CDOMFluorometer Characterization Sheet  or QCT capture file as M3d</t>
-  </si>
-  <si>
-    <r>
-      <t>Measured signal output of fluormeter in clean water with black tape over the detector [counts]  Found in the</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ECO Chlorophyll Fluorometer Characterization</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Sheet  or QCT capture file as M2d</t>
-    </r>
   </si>
   <si>
     <t>Multiplier [m^-1 sr^-1 counts^-1] Found in the Sattering Meter Calibration Sheet  or QCT capture file as M1s</t>
@@ -322,6 +301,32 @@
       <t>-VEL3DK000</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Measured signal output of fluormeter in clean water with black tape over the detector [counts]  Found in the</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ECO Chlorophyll Fluorometer Characterization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sheet  or QCT capture file as M2d</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +335,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -375,13 +380,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -393,28 +391,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -438,6 +414,27 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DejaVu Sans Mono"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -519,7 +516,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -552,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -562,15 +559,10 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -594,14 +586,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -682,6 +679,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -729,7 +729,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,7 +764,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -975,28 +975,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="51.7109375"/>
+    <col min="1" max="1" width="37.88671875"/>
+    <col min="2" max="2" width="39.44140625"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625"/>
+    <col min="7" max="7" width="18.6640625"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875"/>
+    <col min="10" max="10" width="12.6640625"/>
+    <col min="11" max="11" width="51.6640625"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.7109375"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5">
+    <row r="1" spans="1:13" ht="31.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="12" t="s">
         <v>34</v>
       </c>
@@ -1047,12 +1047,14 @@
       <c r="E2" s="15">
         <v>4.027777777777778E-2</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4">
+        <v>41920</v>
+      </c>
       <c r="G2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="I2" s="5">
         <v>536.1</v>
@@ -1061,11 +1063,11 @@
         <v>41</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="18">
+      <c r="L2" s="16">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>46.851733333333335</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="16">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-124.97145</v>
       </c>
@@ -1088,27 +1090,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125"/>
-    <col min="9" max="9" width="11.85546875"/>
-    <col min="10" max="10" width="14.42578125"/>
-    <col min="11" max="11" width="13.42578125"/>
-    <col min="12" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625"/>
+    <col min="9" max="9" width="11.88671875"/>
+    <col min="10" max="10" width="14.44140625"/>
+    <col min="11" max="11" width="13.44140625"/>
+    <col min="12" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,10 +1146,10 @@
       <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="20">
         <v>-847.09</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="28" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1167,9 +1169,10 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="21">
         <v>46.851733333333335</v>
       </c>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
@@ -1187,9 +1190,10 @@
       <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <v>-124.97145</v>
       </c>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
@@ -1207,10 +1211,10 @@
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>2.6792E-4</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="28" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1230,10 +1234,10 @@
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>-3.1055000000000002E-3</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="28" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1253,10 +1257,10 @@
       <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>1.8441E-4</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1276,10 +1280,10 @@
       <c r="E8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>-3.2971000000000002E-6</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="28" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1299,10 +1303,10 @@
       <c r="E9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1312,7 +1316,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="25"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="8" t="s">
@@ -1330,7 +1334,7 @@
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="21">
         <v>46.851733333333335</v>
       </c>
     </row>
@@ -1350,7 +1354,7 @@
       <c r="E12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="21">
         <v>-124.97145</v>
       </c>
     </row>
@@ -1360,11 +1364,11 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="26"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>40</v>
@@ -1378,13 +1382,13 @@
       <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="21">
         <v>46.851733333333335</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>40</v>
@@ -1398,7 +1402,7 @@
       <c r="E15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="21">
         <v>-124.97145</v>
       </c>
     </row>
@@ -1408,7 +1412,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="26"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8" t="s">
@@ -1424,9 +1428,9 @@
         <v>1030</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="27">
+        <v>61</v>
+      </c>
+      <c r="F17" s="24">
         <v>1.08</v>
       </c>
       <c r="G17" s="9" t="s">
@@ -1449,10 +1453,10 @@
       <c r="E18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="25">
         <v>49</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="30" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1472,11 +1476,11 @@
       <c r="E19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="25">
         <v>51</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>50</v>
+      <c r="G19" s="30" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1495,11 +1499,11 @@
       <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="25">
         <v>50</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>51</v>
+      <c r="G20" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1516,9 +1520,9 @@
         <v>1030</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="27">
+        <v>62</v>
+      </c>
+      <c r="F21" s="24">
         <v>3.9E-2</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -1539,9 +1543,9 @@
         <v>1030</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="27">
+        <v>63</v>
+      </c>
+      <c r="F22" s="24">
         <v>700</v>
       </c>
       <c r="G22" s="9" t="s">
@@ -1564,11 +1568,11 @@
       <c r="E23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="25">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>52</v>
+      <c r="G23" s="30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1587,11 +1591,11 @@
       <c r="E24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="23">
         <v>1.21E-2</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>53</v>
+      <c r="G24" s="30" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1610,11 +1614,11 @@
       <c r="E25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="26">
         <v>3.4809999999999998E-6</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>51</v>
+      <c r="G25" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1631,9 +1635,9 @@
         <v>1030</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="27">
+        <v>64</v>
+      </c>
+      <c r="F26" s="24">
         <v>117</v>
       </c>
       <c r="G26" s="9" t="s">
@@ -1646,7 +1650,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="27"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
@@ -1664,11 +1668,11 @@
       <c r="E28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="23">
         <v>1.4</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>54</v>
+      <c r="G28" s="28" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1687,16 +1691,17 @@
       <c r="E29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="27">
         <v>1.01E-17</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>55</v>
+      <c r="G29" s="28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="8"/>
-      <c r="F30" s="21"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8" t="s">
@@ -1708,17 +1713,17 @@
       <c r="C31" s="9">
         <v>1</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="29" t="s">
         <v>60</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>40</v>
@@ -1729,11 +1734,11 @@
       <c r="D32" s="9">
         <v>950</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>40</v>
@@ -1744,11 +1749,11 @@
       <c r="D33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="21"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00001.xlsx
+++ b/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$84</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$399</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -729,7 +724,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,7 +759,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -975,28 +970,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.88671875"/>
-    <col min="2" max="2" width="39.44140625"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625"/>
-    <col min="7" max="7" width="18.6640625"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="12.6640625"/>
-    <col min="11" max="11" width="51.6640625"/>
+    <col min="1" max="1" width="37.85546875"/>
+    <col min="2" max="2" width="39.42578125"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125"/>
+    <col min="7" max="7" width="18.7109375"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875"/>
+    <col min="10" max="10" width="12.7109375"/>
+    <col min="11" max="11" width="51.7109375"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.6640625"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2">
+    <row r="1" spans="1:13" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6">
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" s="12" t="s">
         <v>34</v>
       </c>
@@ -1090,27 +1085,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625"/>
-    <col min="9" max="9" width="11.88671875"/>
-    <col min="10" max="10" width="14.44140625"/>
-    <col min="11" max="11" width="13.44140625"/>
-    <col min="12" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125"/>
+    <col min="9" max="9" width="11.85546875"/>
+    <col min="10" max="10" width="14.42578125"/>
+    <col min="11" max="11" width="13.42578125"/>
+    <col min="12" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1426,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="24">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>33</v>
@@ -1638,7 +1633,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="24">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>33</v>

--- a/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00001.xlsx
+++ b/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>Ref Des</t>
   </si>
@@ -321,6 +321,9 @@
       </rPr>
       <t xml:space="preserve"> Sheet  or QCT capture file as M2d</t>
     </r>
+  </si>
+  <si>
+    <t>Constant; chi factor</t>
   </si>
 </sst>
 </file>
@@ -970,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1043,7 +1046,7 @@
         <v>4.027777777777778E-2</v>
       </c>
       <c r="F2" s="4">
-        <v>41920</v>
+        <v>41866</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>55</v>
@@ -1085,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1097,7 +1100,7 @@
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.42578125"/>
     <col min="9" max="9" width="11.85546875"/>
     <col min="10" max="10" width="14.42578125"/>
@@ -1429,7 +1432,7 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:7">
